--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_8_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_8_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27404.84571152099</v>
+        <v>5453564.296592674</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27404.84571152099</v>
+        <v>5453564.296592674</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47207.95276450782</v>
+        <v>3755385.682669846</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47207.95276450782</v>
+        <v>3755385.682669846</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495000593.976774</v>
+        <v>58466961.99912294</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11999.70029413463</v>
+        <v>1301425.912343144</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23527.2834796315</v>
+        <v>2529281.293274306</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35054.86666512838</v>
+        <v>3757136.674205469</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49177.82772565872</v>
+        <v>4953049.192493352</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63090.77181649205</v>
+        <v>6107168.333811537</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77003.71590732539</v>
+        <v>7261287.47512972</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91522.99974660018</v>
+        <v>8435944.762820641</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105939.0768201828</v>
+        <v>9590063.90413882</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121593.4514105066</v>
+        <v>10614274.25573325</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>136023.1664085622</v>
+        <v>11767312.23015078</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>150439.243482145</v>
+        <v>12921431.37146896</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>162592.2517653699</v>
+        <v>14084446.80022481</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>174955.2175213577</v>
+        <v>15289243.76606048</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>188855.5442421219</v>
+        <v>16342312.23432523</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>204349.9757736688</v>
+        <v>17027359.33003493</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>133.0000000001723</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>385</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>663</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>326</v>
